--- a/AutoMVNtoMatlab.xlsx
+++ b/AutoMVNtoMatlab.xlsx
@@ -24,40 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S22</t>
+    <t>S09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -401,78 +370,6 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
         <v>30</v>
       </c>
     </row>
